--- a/doc/内部設計/03_ファイル構成一覧表_E3.xlsx
+++ b/doc/内部設計/03_ファイル構成一覧表_E3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E3\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D09B9A-6D4C-4088-AF7A-D46AF850A047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19D454F-33FF-4F46-ACB5-5AC01DDC1D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GraphicServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規登録初期表示用</t>
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
@@ -816,6 +812,10 @@
     <rPh sb="3" eb="5">
       <t>マスブチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GraphServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1295,7 +1295,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -1309,10 +1309,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1321,7 +1321,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -1335,10 +1335,10 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1347,7 +1347,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -1368,7 +1368,7 @@
         <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1377,7 +1377,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -1398,7 +1398,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1407,7 +1407,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
@@ -1428,7 +1428,7 @@
         <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1437,7 +1437,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -1455,7 +1455,7 @@
         <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -1479,10 +1479,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1491,7 +1491,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
@@ -1505,10 +1505,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1517,7 +1517,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
@@ -1547,7 +1547,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
@@ -1562,10 +1562,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1574,7 +1574,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -1588,10 +1588,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1600,7 +1600,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
@@ -1627,7 +1627,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -1642,10 +1642,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1654,7 +1654,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.45">
@@ -1668,10 +1668,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1680,7 +1680,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.45">
@@ -1707,7 +1707,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.45">
@@ -1722,10 +1722,10 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1734,7 +1734,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.45">
@@ -1748,10 +1748,10 @@
         <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1760,7 +1760,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.45">
@@ -1775,10 +1775,10 @@
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1787,7 +1787,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.45">
@@ -1802,10 +1802,10 @@
         <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1814,7 +1814,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.45">
@@ -1829,10 +1829,10 @@
         <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1841,7 +1841,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
@@ -1856,10 +1856,10 @@
         <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1868,7 +1868,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
@@ -1883,10 +1883,10 @@
         <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1895,7 +1895,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
@@ -1922,7 +1922,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
@@ -1937,10 +1937,10 @@
         <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1949,7 +1949,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
@@ -1964,10 +1964,10 @@
         <v>15</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1976,7 +1976,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
@@ -1991,10 +1991,10 @@
         <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2003,7 +2003,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.45">
@@ -2018,10 +2018,10 @@
         <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2030,7 +2030,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
@@ -2045,10 +2045,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2057,7 +2057,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
@@ -2072,10 +2072,10 @@
         <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2084,7 +2084,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
@@ -2098,10 +2098,10 @@
         <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2110,7 +2110,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
@@ -2137,7 +2137,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
@@ -2164,7 +2164,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
@@ -2179,10 +2179,10 @@
         <v>17</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2191,7 +2191,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
@@ -2206,10 +2206,10 @@
         <v>17</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2218,7 +2218,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
@@ -2233,10 +2233,10 @@
         <v>17</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2245,7 +2245,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
@@ -2260,10 +2260,10 @@
         <v>17</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2272,7 +2272,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
@@ -2287,10 +2287,10 @@
         <v>17</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2299,7 +2299,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
@@ -2314,10 +2314,10 @@
         <v>17</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2326,7 +2326,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.45">
@@ -2341,10 +2341,10 @@
         <v>17</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2353,7 +2353,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2369,15 +2369,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2548,6 +2539,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2555,14 +2555,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2577,6 +2569,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/内部設計/03_ファイル構成一覧表_E3.xlsx
+++ b/doc/内部設計/03_ファイル構成一覧表_E3.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E3\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19D454F-33FF-4F46-ACB5-5AC01DDC1D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A5E643-2550-4055-9A64-81E58045A09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="110">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -324,19 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規登録初期表示用</t>
-    <rPh sb="0" eb="4">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>ショキヒョウジ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メイン画面初期表示用</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -816,6 +803,36 @@
   </si>
   <si>
     <t>GraphServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ユーザー登録初期表示用</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ID・パスワード登録職表示用</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="16">
+      <t>トウロクショクヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IdpwRegistServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -823,7 +840,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,6 +853,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -883,7 +908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,6 +916,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1207,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1295,7 +1323,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -1309,10 +1337,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1321,7 +1349,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -1335,10 +1363,10 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1347,15 +1375,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C42" si="0">ROW()-2</f>
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1364,11 +1388,11 @@
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
+      <c r="F6" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1376,16 +1400,14 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C7:C43" si="0">ROW()-2</f>
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1395,10 +1417,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1412,7 +1434,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1425,10 +1447,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1437,10 +1459,13 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1452,10 +1477,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1464,7 +1489,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -1479,10 +1504,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1491,11 +1516,12 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1505,10 +1531,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1517,28 +1543,24 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1547,10 +1569,13 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1562,10 +1587,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1574,12 +1599,13 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
@@ -1588,10 +1614,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1600,25 +1626,24 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1627,7 +1652,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -1642,10 +1667,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1654,12 +1679,13 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -1668,10 +1694,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1680,25 +1706,24 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1707,7 +1732,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.45">
@@ -1722,10 +1747,10 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1734,12 +1759,13 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>18</v>
@@ -1748,10 +1774,10 @@
         <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1760,13 +1786,12 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>18</v>
@@ -1775,10 +1800,10 @@
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1802,10 +1827,10 @@
         <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1814,7 +1839,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.45">
@@ -1829,10 +1854,10 @@
         <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1841,7 +1866,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
@@ -1856,10 +1881,10 @@
         <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1868,7 +1893,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
@@ -1883,10 +1908,10 @@
         <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1895,7 +1920,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
@@ -1904,16 +1929,16 @@
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1922,7 +1947,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
@@ -1937,10 +1962,10 @@
         <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1949,7 +1974,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
@@ -1964,10 +1989,10 @@
         <v>15</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1976,7 +2001,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
@@ -1991,10 +2016,10 @@
         <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2018,10 +2043,10 @@
         <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2030,7 +2055,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
@@ -2045,10 +2070,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2057,7 +2082,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
@@ -2072,10 +2097,10 @@
         <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2084,12 +2109,13 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>19</v>
@@ -2098,10 +2124,10 @@
         <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2110,25 +2136,24 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2137,7 +2162,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
@@ -2152,10 +2177,10 @@
         <v>17</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2164,7 +2189,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
@@ -2179,10 +2204,10 @@
         <v>17</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2191,7 +2216,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
@@ -2206,10 +2231,10 @@
         <v>17</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2218,7 +2243,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
@@ -2233,10 +2258,10 @@
         <v>17</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2260,10 +2285,10 @@
         <v>17</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2272,7 +2297,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
@@ -2287,10 +2312,10 @@
         <v>17</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2299,7 +2324,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
@@ -2314,10 +2339,10 @@
         <v>17</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2326,7 +2351,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.45">
@@ -2341,10 +2366,10 @@
         <v>17</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2353,15 +2378,42 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N42" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N43" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M42" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
-      <formula1>$A$2:$A$12</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M43" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+      <formula1>$A$2:$A$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2369,6 +2421,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2539,15 +2600,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2555,6 +2607,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2569,14 +2629,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/内部設計/03_ファイル構成一覧表_E3.xlsx
+++ b/doc/内部設計/03_ファイル構成一覧表_E3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E3\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A5E643-2550-4055-9A64-81E58045A09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE64FA1-12C9-4513-A840-3BA900579533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="118">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -833,6 +833,38 @@
   </si>
   <si>
     <t>IdpwRegistServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>growth.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>graph.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>walking.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calorie_regist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idpw_regist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_regist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水戸部/増渕</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -908,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,6 +951,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1316,12 +1354,24 @@
       <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="H3" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I3" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J3" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K3" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N3" s="1" t="s">
         <v>96</v>
       </c>
@@ -1342,12 +1392,24 @@
       <c r="G4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="H4" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I4" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J4" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K4" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N4" s="1" t="s">
         <v>96</v>
       </c>
@@ -1368,12 +1430,24 @@
       <c r="G5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="H5" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I5" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J5" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K5" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N5" s="1" t="s">
         <v>97</v>
       </c>
@@ -1394,13 +1468,27 @@
       <c r="G6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="H6" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I6" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J6" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K6" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -1422,12 +1510,24 @@
       <c r="G7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="H7" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J7" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K7" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N7" s="1" t="s">
         <v>98</v>
       </c>
@@ -1452,12 +1552,24 @@
       <c r="G8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="H8" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J8" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K8" s="4">
+        <v>45467</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N8" s="1" t="s">
         <v>97</v>
       </c>
@@ -1482,12 +1594,24 @@
       <c r="G9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="H9" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I9" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J9" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K9" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N9" s="1" t="s">
         <v>99</v>
       </c>
@@ -1509,12 +1633,24 @@
       <c r="G10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="H10" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I10" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J10" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K10" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N10" s="1" t="s">
         <v>100</v>
       </c>
@@ -1536,12 +1672,24 @@
       <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="H11" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I11" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J11" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K11" s="4">
+        <v>45467</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N11" s="1" t="s">
         <v>101</v>
       </c>
@@ -1562,12 +1710,24 @@
       <c r="G12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="H12" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I12" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J12" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K12" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N12" s="1" t="s">
         <v>104</v>
       </c>
@@ -1592,12 +1752,24 @@
       <c r="G13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="H13" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I13" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J13" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K13" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N13" s="1" t="s">
         <v>105</v>
       </c>
@@ -1619,12 +1791,24 @@
       <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="H14" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I14" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J14" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K14" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N14" s="1" t="s">
         <v>105</v>
       </c>
@@ -1645,12 +1829,24 @@
       <c r="G15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="H15" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I15" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J15" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K15" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" s="1" t="s">
         <v>105</v>
       </c>
@@ -1672,12 +1868,24 @@
       <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="H16" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I16" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J16" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K16" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N16" s="1" t="s">
         <v>105</v>
       </c>
@@ -1699,12 +1907,24 @@
       <c r="G17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="H17" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I17" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J17" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K17" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N17" s="1" t="s">
         <v>105</v>
       </c>
@@ -1725,12 +1945,24 @@
       <c r="G18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="H18" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I18" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J18" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K18" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N18" s="1" t="s">
         <v>105</v>
       </c>
@@ -1752,12 +1984,24 @@
       <c r="G19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="H19" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I19" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J19" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K19" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N19" s="1" t="s">
         <v>96</v>
       </c>
@@ -1779,12 +2023,24 @@
       <c r="G20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="H20" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I20" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J20" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K20" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N20" s="1" t="s">
         <v>98</v>
       </c>
@@ -1805,12 +2061,24 @@
       <c r="G21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="H21" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I21" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J21" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K21" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N21" s="1" t="s">
         <v>98</v>
       </c>
@@ -1832,12 +2100,24 @@
       <c r="G22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="H22" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I22" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J22" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K22" s="4">
+        <v>45467</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>97</v>
       </c>
@@ -1859,12 +2139,24 @@
       <c r="G23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="H23" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I23" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J23" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K23" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N23" s="1" t="s">
         <v>99</v>
       </c>
@@ -1886,12 +2178,24 @@
       <c r="G24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="H24" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I24" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J24" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K24" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N24" s="1" t="s">
         <v>100</v>
       </c>
@@ -1913,12 +2217,24 @@
       <c r="G25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="H25" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I25" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J25" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K25" s="4">
+        <v>45467</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N25" s="1" t="s">
         <v>101</v>
       </c>
@@ -1940,12 +2256,24 @@
       <c r="G26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="H26" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I26" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J26" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K26" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N26" s="1" t="s">
         <v>104</v>
       </c>
@@ -1967,12 +2295,24 @@
       <c r="G27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="H27" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I27" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J27" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K27" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N27" s="1" t="s">
         <v>96</v>
       </c>
@@ -1994,12 +2334,24 @@
       <c r="G28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="H28" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I28" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J28" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K28" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N28" s="1" t="s">
         <v>98</v>
       </c>
@@ -2021,12 +2373,24 @@
       <c r="G29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="H29" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I29" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J29" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K29" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N29" s="1" t="s">
         <v>98</v>
       </c>
@@ -2048,12 +2412,24 @@
       <c r="G30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="H30" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I30" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J30" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K30" s="4">
+        <v>45467</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N30" s="1" t="s">
         <v>97</v>
       </c>
@@ -2075,12 +2451,24 @@
       <c r="G31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="H31" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I31" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J31" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K31" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N31" s="1" t="s">
         <v>99</v>
       </c>
@@ -2102,12 +2490,24 @@
       <c r="G32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="H32" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I32" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J32" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K32" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N32" s="1" t="s">
         <v>100</v>
       </c>
@@ -2129,12 +2529,24 @@
       <c r="G33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="H33" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I33" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J33" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K33" s="4">
+        <v>45467</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N33" s="1" t="s">
         <v>101</v>
       </c>
@@ -2155,12 +2567,24 @@
       <c r="G34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="H34" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I34" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J34" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K34" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N34" s="1" t="s">
         <v>104</v>
       </c>
@@ -2182,12 +2606,24 @@
       <c r="G35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="H35" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I35" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J35" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K35" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N35" s="1" t="s">
         <v>101</v>
       </c>
@@ -2209,12 +2645,24 @@
       <c r="G36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="H36" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I36" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J36" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K36" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N36" s="1" t="s">
         <v>96</v>
       </c>
@@ -2231,17 +2679,29 @@
         <v>17</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="H37" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I37" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J37" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K37" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N37" s="1" t="s">
         <v>98</v>
       </c>
@@ -2258,17 +2718,29 @@
         <v>17</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="H38" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I38" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J38" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K38" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N38" s="1" t="s">
         <v>98</v>
       </c>
@@ -2285,17 +2757,29 @@
         <v>17</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="H39" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I39" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J39" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K39" s="4">
+        <v>45467</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N39" s="1" t="s">
         <v>97</v>
       </c>
@@ -2312,17 +2796,29 @@
         <v>17</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="H40" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I40" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J40" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K40" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N40" s="1" t="s">
         <v>99</v>
       </c>
@@ -2339,17 +2835,29 @@
         <v>17</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="H41" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I41" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J41" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K41" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N41" s="1" t="s">
         <v>100</v>
       </c>
@@ -2366,17 +2874,29 @@
         <v>17</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="H42" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I42" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J42" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K42" s="4">
+        <v>45467</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N42" s="1" t="s">
         <v>101</v>
       </c>
@@ -2393,17 +2913,29 @@
         <v>17</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="H43" s="4">
+        <v>45456</v>
+      </c>
+      <c r="I43" s="4">
+        <v>45464</v>
+      </c>
+      <c r="J43" s="4">
+        <v>45456</v>
+      </c>
+      <c r="K43" s="4">
+        <v>45464</v>
+      </c>
+      <c r="L43" s="5">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N43" s="1" t="s">
         <v>104</v>
       </c>
